--- a/results/5000/resultsSummaryTFIDF5000.xlsx
+++ b/results/5000/resultsSummaryTFIDF5000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programowanie\python\przetwarzanieJezykaNaturalnego\projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programowanie\python\przetwarzanieJezykaNaturalnego\projekt\results\5000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCAE7C4-30E8-42BC-868A-629B7B0F1D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BCD8C4-BAF6-43B2-AF61-5A21D83A0B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-21720" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1078,140 +1078,140 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>0.92779999999999996</v>
       </c>
       <c r="E5">
-        <v>0.97869440000000008</v>
+        <v>0.97869259999999991</v>
       </c>
       <c r="F5">
         <v>0.873</v>
       </c>
       <c r="G5">
-        <v>0.94431876000000003</v>
+        <v>0.94431964000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>0.92779999999999996</v>
       </c>
       <c r="E6">
-        <v>0.97869908000000005</v>
+        <v>0.97870612000000001</v>
       </c>
       <c r="F6">
         <v>0.873</v>
       </c>
       <c r="G6">
-        <v>0.94431951999999997</v>
+        <v>0.94431964000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>0.92779999999999996</v>
       </c>
       <c r="E7">
-        <v>0.97870268000000005</v>
+        <v>0.97869908000000005</v>
       </c>
       <c r="F7">
         <v>0.873</v>
       </c>
       <c r="G7">
-        <v>0.94431915999999994</v>
+        <v>0.94431951999999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>0.92779999999999996</v>
+        <v>0.92769999999999997</v>
       </c>
       <c r="E8">
-        <v>0.97869259999999991</v>
+        <v>0.97869227999999997</v>
       </c>
       <c r="F8">
         <v>0.873</v>
       </c>
       <c r="G8">
-        <v>0.94431964000000002</v>
+        <v>0.94431919999999991</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>0.92769999999999997</v>
+        <v>0.92779999999999996</v>
       </c>
       <c r="E9">
-        <v>0.97869227999999997</v>
+        <v>0.97870268000000005</v>
       </c>
       <c r="F9">
         <v>0.873</v>
       </c>
       <c r="G9">
-        <v>0.94431919999999991</v>
+        <v>0.94431915999999994</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>0.92779999999999996</v>
       </c>
       <c r="E10">
-        <v>0.97870612000000001</v>
+        <v>0.97869440000000008</v>
       </c>
       <c r="F10">
         <v>0.873</v>
       </c>
       <c r="G10">
-        <v>0.94431964000000002</v>
+        <v>0.94431876000000003</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1239,36 +1239,36 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>0.93130000000000002</v>
       </c>
       <c r="E12">
-        <v>0.98186336000000007</v>
+        <v>0.98186415999999999</v>
       </c>
       <c r="F12">
         <v>0.87209999999999999</v>
       </c>
       <c r="G12">
-        <v>0.94571064000000005</v>
+        <v>0.94571116</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>0.93130000000000002</v>
@@ -1285,13 +1285,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>0.93130000000000002</v>
@@ -1308,25 +1308,25 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>0.93130000000000002</v>
       </c>
       <c r="E15">
-        <v>0.98186415999999999</v>
+        <v>0.98186336000000007</v>
       </c>
       <c r="F15">
         <v>0.87209999999999999</v>
       </c>
       <c r="G15">
-        <v>0.94571116</v>
+        <v>0.94571064000000005</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1354,140 +1354,140 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="D17">
-        <v>0.93630000000000002</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="E17">
-        <v>0.98405352000000013</v>
+        <v>0.98377375999999994</v>
       </c>
       <c r="F17">
         <v>0.872</v>
       </c>
       <c r="G17">
-        <v>0.94562051999999996</v>
+        <v>0.94575468000000007</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="D18">
-        <v>0.93630000000000002</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="E18">
-        <v>0.98405352000000013</v>
+        <v>0.98377375999999994</v>
       </c>
       <c r="F18">
         <v>0.872</v>
       </c>
       <c r="G18">
-        <v>0.94562051999999996</v>
+        <v>0.94575468000000007</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="D19">
-        <v>0.93630000000000002</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="E19">
-        <v>0.98405352000000013</v>
+        <v>0.98377375999999994</v>
       </c>
       <c r="F19">
         <v>0.872</v>
       </c>
       <c r="G19">
-        <v>0.94562051999999996</v>
+        <v>0.94575468000000007</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>0.93669999999999998</v>
+        <v>0.93630000000000002</v>
       </c>
       <c r="E20">
-        <v>0.98377375999999994</v>
+        <v>0.98405352000000013</v>
       </c>
       <c r="F20">
         <v>0.872</v>
       </c>
       <c r="G20">
-        <v>0.94575468000000007</v>
+        <v>0.94562051999999996</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>0.93669999999999998</v>
+        <v>0.93630000000000002</v>
       </c>
       <c r="E21">
-        <v>0.98377375999999994</v>
+        <v>0.98405352000000013</v>
       </c>
       <c r="F21">
         <v>0.872</v>
       </c>
       <c r="G21">
-        <v>0.94575468000000007</v>
+        <v>0.94562051999999996</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>0.93669999999999998</v>
+        <v>0.93630000000000002</v>
       </c>
       <c r="E22">
-        <v>0.98377375999999994</v>
+        <v>0.98405352000000013</v>
       </c>
       <c r="F22">
         <v>0.872</v>
       </c>
       <c r="G22">
-        <v>0.94575468000000007</v>
+        <v>0.94562051999999996</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1561,48 +1561,48 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
         <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D26">
-        <v>0.93189999999999995</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="E26">
-        <v>0.98158800000000002</v>
+        <v>0.98158928000000001</v>
       </c>
       <c r="F26">
         <v>0.87180000000000002</v>
       </c>
       <c r="G26">
-        <v>0.94571095999999988</v>
+        <v>0.94572763999999998</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27">
-        <v>0.93200000000000005</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="E27">
-        <v>0.98158928000000001</v>
+        <v>0.98158800000000002</v>
       </c>
       <c r="F27">
         <v>0.87180000000000002</v>
       </c>
       <c r="G27">
-        <v>0.94572763999999998</v>
+        <v>0.94571095999999988</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1630,82 +1630,82 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s">
         <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D29">
-        <v>0.93189999999999995</v>
+        <v>0.93069999999999997</v>
       </c>
       <c r="E29">
-        <v>0.98158168000000001</v>
+        <v>0.98039107999999997</v>
       </c>
       <c r="F29">
         <v>0.87160000000000004</v>
       </c>
       <c r="G29">
-        <v>0.94572195999999997</v>
+        <v>0.94744363999999992</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s">
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D30">
-        <v>0.93189999999999995</v>
+        <v>0.93069999999999997</v>
       </c>
       <c r="E30">
-        <v>0.98157860000000008</v>
+        <v>0.98039107999999997</v>
       </c>
       <c r="F30">
         <v>0.87160000000000004</v>
       </c>
       <c r="G30">
-        <v>0.94572584000000015</v>
+        <v>0.94744363999999992</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D31">
-        <v>0.93189999999999995</v>
+        <v>0.93069999999999997</v>
       </c>
       <c r="E31">
-        <v>0.98158168000000001</v>
+        <v>0.98039107999999997</v>
       </c>
       <c r="F31">
         <v>0.87160000000000004</v>
       </c>
       <c r="G31">
-        <v>0.94572195999999997</v>
+        <v>0.94744363999999992</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D32">
         <v>0.93189999999999995</v>
@@ -1722,25 +1722,25 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D33">
         <v>0.93189999999999995</v>
       </c>
       <c r="E33">
-        <v>0.98158168000000001</v>
+        <v>0.98157860000000008</v>
       </c>
       <c r="F33">
         <v>0.87160000000000004</v>
       </c>
       <c r="G33">
-        <v>0.94572195999999997</v>
+        <v>0.94572584000000015</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1791,611 +1791,611 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D36">
-        <v>0.93069999999999997</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="E36">
-        <v>0.98039107999999997</v>
+        <v>0.98158168000000001</v>
       </c>
       <c r="F36">
         <v>0.87160000000000004</v>
       </c>
       <c r="G36">
-        <v>0.94744363999999992</v>
+        <v>0.94572195999999997</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
         <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D37">
-        <v>0.93069999999999997</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="E37">
-        <v>0.98039107999999997</v>
+        <v>0.98158168000000001</v>
       </c>
       <c r="F37">
         <v>0.87160000000000004</v>
       </c>
       <c r="G37">
-        <v>0.94744363999999992</v>
+        <v>0.94572195999999997</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
         <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D38">
-        <v>0.93069999999999997</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="E38">
-        <v>0.98039107999999997</v>
+        <v>0.98158168000000001</v>
       </c>
       <c r="F38">
         <v>0.87160000000000004</v>
       </c>
       <c r="G38">
-        <v>0.94744363999999992</v>
+        <v>0.94572195999999997</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="B39" t="s">
         <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="D39">
-        <v>0.92649999999999999</v>
+        <v>0.93149999999999999</v>
       </c>
       <c r="E39">
-        <v>0.97968667999999992</v>
+        <v>0.98158804000000011</v>
       </c>
       <c r="F39">
         <v>0.87150000000000005</v>
       </c>
       <c r="G39">
-        <v>0.94544647999999998</v>
+        <v>0.94573111999999993</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="D40">
-        <v>0.92649999999999999</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="E40">
-        <v>0.97968667999999992</v>
+        <v>0.9815792000000001</v>
       </c>
       <c r="F40">
         <v>0.87150000000000005</v>
       </c>
       <c r="G40">
-        <v>0.94544647999999998</v>
+        <v>0.94572487999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D41">
-        <v>0.92649999999999999</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="E41">
-        <v>0.97968667999999992</v>
+        <v>0.9815788000000002</v>
       </c>
       <c r="F41">
         <v>0.87150000000000005</v>
       </c>
       <c r="G41">
-        <v>0.94544647999999998</v>
+        <v>0.94572431999999984</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
         <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="D42">
-        <v>0.93189999999999995</v>
+        <v>0.92649999999999999</v>
       </c>
       <c r="E42">
-        <v>0.9815792000000001</v>
+        <v>0.97968667999999992</v>
       </c>
       <c r="F42">
         <v>0.87150000000000005</v>
       </c>
       <c r="G42">
-        <v>0.94572487999999999</v>
+        <v>0.94544647999999998</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B43" t="s">
         <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="D43">
-        <v>0.93149999999999999</v>
+        <v>0.92649999999999999</v>
       </c>
       <c r="E43">
-        <v>0.98158804000000011</v>
+        <v>0.97968667999999992</v>
       </c>
       <c r="F43">
         <v>0.87150000000000005</v>
       </c>
       <c r="G43">
-        <v>0.94573111999999993</v>
+        <v>0.94544647999999998</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
         <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="D44">
-        <v>0.93189999999999995</v>
+        <v>0.92649999999999999</v>
       </c>
       <c r="E44">
-        <v>0.9815788000000002</v>
+        <v>0.97968667999999992</v>
       </c>
       <c r="F44">
         <v>0.87150000000000005</v>
       </c>
       <c r="G44">
-        <v>0.94572431999999984</v>
+        <v>0.94544647999999998</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s">
         <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D45">
-        <v>0.92659999999999998</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="E45">
-        <v>0.97969528000000017</v>
+        <v>0.98153540000000017</v>
       </c>
       <c r="F45">
         <v>0.87139999999999995</v>
       </c>
       <c r="G45">
-        <v>0.94546299999999994</v>
+        <v>0.94565292000000001</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
         <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D46">
-        <v>0.92659999999999998</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="E46">
-        <v>0.97969528000000017</v>
+        <v>0.98153540000000017</v>
       </c>
       <c r="F46">
         <v>0.87139999999999995</v>
       </c>
       <c r="G46">
-        <v>0.94546299999999994</v>
+        <v>0.94565292000000001</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
         <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D47">
-        <v>0.92659999999999998</v>
+        <v>0.93189999999999995</v>
       </c>
       <c r="E47">
-        <v>0.97969528000000017</v>
+        <v>0.98153540000000017</v>
       </c>
       <c r="F47">
         <v>0.87139999999999995</v>
       </c>
       <c r="G47">
-        <v>0.94546299999999994</v>
+        <v>0.94565292000000001</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
         <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D48">
         <v>0.92659999999999998</v>
       </c>
       <c r="E48">
-        <v>0.97969660000000003</v>
+        <v>0.97969528000000017</v>
       </c>
       <c r="F48">
         <v>0.87139999999999995</v>
       </c>
       <c r="G48">
-        <v>0.94546068000000005</v>
+        <v>0.94546299999999994</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
         <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D49">
-        <v>0.92630000000000001</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="E49">
-        <v>0.9797117999999998</v>
+        <v>0.97969528000000017</v>
       </c>
       <c r="F49">
         <v>0.87139999999999995</v>
       </c>
       <c r="G49">
-        <v>0.94546156000000015</v>
+        <v>0.94546299999999994</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D50">
         <v>0.92659999999999998</v>
       </c>
       <c r="E50">
-        <v>0.97969555999999991</v>
+        <v>0.97969528000000017</v>
       </c>
       <c r="F50">
         <v>0.87139999999999995</v>
       </c>
       <c r="G50">
-        <v>0.94544591999999983</v>
+        <v>0.94546299999999994</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
         <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D51">
-        <v>0.93189999999999995</v>
+        <v>0.92630000000000001</v>
       </c>
       <c r="E51">
-        <v>0.98153540000000017</v>
+        <v>0.9797117999999998</v>
       </c>
       <c r="F51">
         <v>0.87139999999999995</v>
       </c>
       <c r="G51">
-        <v>0.94565292000000001</v>
+        <v>0.94546156000000015</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
         <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D52">
-        <v>0.93189999999999995</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="E52">
-        <v>0.98153540000000017</v>
+        <v>0.97969660000000003</v>
       </c>
       <c r="F52">
         <v>0.87139999999999995</v>
       </c>
       <c r="G52">
-        <v>0.94565292000000001</v>
+        <v>0.94546068000000005</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
         <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D53">
-        <v>0.93189999999999995</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="E53">
-        <v>0.98153540000000017</v>
+        <v>0.97969555999999991</v>
       </c>
       <c r="F53">
         <v>0.87139999999999995</v>
       </c>
       <c r="G53">
-        <v>0.94565292000000001</v>
+        <v>0.94544591999999983</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="D54">
-        <v>0.9264</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="E54">
-        <v>0.97971099999999989</v>
+        <v>0.98382228000000005</v>
       </c>
       <c r="F54">
         <v>0.87129999999999996</v>
       </c>
       <c r="G54">
-        <v>0.94546591999999996</v>
+        <v>0.94581515999999999</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s">
         <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="D55">
-        <v>0.92659999999999998</v>
+        <v>0.93659999999999999</v>
       </c>
       <c r="E55">
-        <v>0.97969512000000003</v>
+        <v>0.98381424000000017</v>
       </c>
       <c r="F55">
         <v>0.87129999999999996</v>
       </c>
       <c r="G55">
-        <v>0.94546279999999994</v>
+        <v>0.94580788000000005</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
         <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D56">
-        <v>0.92659999999999998</v>
+        <v>0.9264</v>
       </c>
       <c r="E56">
-        <v>0.97969627999999997</v>
+        <v>0.97971099999999989</v>
       </c>
       <c r="F56">
         <v>0.87129999999999996</v>
       </c>
       <c r="G56">
-        <v>0.94546224000000001</v>
+        <v>0.94546591999999996</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
         <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="D57">
-        <v>0.93669999999999998</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="E57">
-        <v>0.98382228000000005</v>
+        <v>0.97969512000000003</v>
       </c>
       <c r="F57">
         <v>0.87129999999999996</v>
       </c>
       <c r="G57">
-        <v>0.94581515999999999</v>
+        <v>0.94546279999999994</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
         <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="D58">
-        <v>0.93659999999999999</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="E58">
-        <v>0.98381424000000017</v>
+        <v>0.97969627999999997</v>
       </c>
       <c r="F58">
         <v>0.87129999999999996</v>
       </c>
       <c r="G58">
-        <v>0.94580788000000005</v>
+        <v>0.94546224000000001</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="B59" t="s">
         <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="D59">
-        <v>0.92120000000000002</v>
+        <v>0.93689999999999996</v>
       </c>
       <c r="E59">
-        <v>0.97739088000000007</v>
+        <v>0.98383463999999987</v>
       </c>
       <c r="F59">
         <v>0.87119999999999997</v>
       </c>
       <c r="G59">
-        <v>0.94568719999999984</v>
+        <v>0.94581112000000001</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
         <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D60">
-        <v>0.92120000000000002</v>
+        <v>0.93689999999999996</v>
       </c>
       <c r="E60">
-        <v>0.97739088000000007</v>
+        <v>0.9838318800000001</v>
       </c>
       <c r="F60">
         <v>0.87119999999999997</v>
       </c>
       <c r="G60">
-        <v>0.94568719999999984</v>
+        <v>0.94581011999999987</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
         <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="D61">
-        <v>0.92120000000000002</v>
+        <v>0.93689999999999996</v>
       </c>
       <c r="E61">
-        <v>0.97739088000000007</v>
+        <v>0.9838318800000001</v>
       </c>
       <c r="F61">
         <v>0.87119999999999997</v>
       </c>
       <c r="G61">
-        <v>0.94568719999999984</v>
+        <v>0.94581011999999987</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
         <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62">
         <v>0.93689999999999996</v>
@@ -2412,13 +2412,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
         <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63">
         <v>0.93689999999999996</v>
@@ -2435,13 +2435,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
         <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64">
         <v>0.93689999999999996</v>
@@ -2458,13 +2458,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
         <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D65">
         <v>0.93689999999999996</v>
@@ -2481,117 +2481,117 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
         <v>107</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D66">
         <v>0.93689999999999996</v>
       </c>
       <c r="E66">
-        <v>0.9838318800000001</v>
+        <v>0.98383147999999998</v>
       </c>
       <c r="F66">
         <v>0.87119999999999997</v>
       </c>
       <c r="G66">
-        <v>0.94581011999999987</v>
+        <v>0.94580787999999993</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s">
         <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D67">
         <v>0.93689999999999996</v>
       </c>
       <c r="E67">
-        <v>0.9838318800000001</v>
+        <v>0.98383399999999999</v>
       </c>
       <c r="F67">
         <v>0.87119999999999997</v>
       </c>
       <c r="G67">
-        <v>0.94581011999999987</v>
+        <v>0.94580511999999994</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
         <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="D68">
-        <v>0.93689999999999996</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="E68">
-        <v>0.98383399999999999</v>
+        <v>0.97739088000000007</v>
       </c>
       <c r="F68">
         <v>0.87119999999999997</v>
       </c>
       <c r="G68">
-        <v>0.94580511999999994</v>
+        <v>0.94568719999999984</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
         <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="D69">
-        <v>0.93689999999999996</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="E69">
-        <v>0.98383463999999987</v>
+        <v>0.97739088000000007</v>
       </c>
       <c r="F69">
         <v>0.87119999999999997</v>
       </c>
       <c r="G69">
-        <v>0.94581112000000001</v>
+        <v>0.94568719999999984</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
         <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="D70">
-        <v>0.93689999999999996</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="E70">
-        <v>0.98383147999999998</v>
+        <v>0.97739088000000007</v>
       </c>
       <c r="F70">
         <v>0.87119999999999997</v>
       </c>
       <c r="G70">
-        <v>0.94580787999999993</v>
+        <v>0.94568719999999984</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2734,36 +2734,36 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
         <v>107</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D77">
-        <v>0.92279999999999995</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="E77">
-        <v>0.97808136000000001</v>
+        <v>0.97902031999999994</v>
       </c>
       <c r="F77">
         <v>0.87090000000000001</v>
       </c>
       <c r="G77">
-        <v>0.94513771999999996</v>
+        <v>0.94583096</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
         <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D78">
         <v>0.92449999999999999</v>
@@ -2780,48 +2780,48 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
         <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D79">
-        <v>0.92720000000000002</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="E79">
-        <v>0.97978140000000002</v>
+        <v>0.97902031999999994</v>
       </c>
       <c r="F79">
         <v>0.87090000000000001</v>
       </c>
       <c r="G79">
-        <v>0.94551403999999994</v>
+        <v>0.94583096</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B80" t="s">
         <v>107</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D80">
-        <v>0.92449999999999999</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="E80">
-        <v>0.97902031999999994</v>
+        <v>0.97978140000000002</v>
       </c>
       <c r="F80">
         <v>0.87090000000000001</v>
       </c>
       <c r="G80">
-        <v>0.94583096</v>
+        <v>0.94551403999999994</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2849,209 +2849,209 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
         <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D82">
-        <v>0.92449999999999999</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="E82">
-        <v>0.97902031999999994</v>
+        <v>0.97978140000000002</v>
       </c>
       <c r="F82">
         <v>0.87090000000000001</v>
       </c>
       <c r="G82">
-        <v>0.94583096</v>
+        <v>0.94551403999999994</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
         <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D83">
-        <v>0.92720000000000002</v>
+        <v>0.92279999999999995</v>
       </c>
       <c r="E83">
-        <v>0.97978140000000002</v>
+        <v>0.97808136000000001</v>
       </c>
       <c r="F83">
         <v>0.87090000000000001</v>
       </c>
       <c r="G83">
-        <v>0.94551403999999994</v>
+        <v>0.94513771999999996</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s">
         <v>107</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D84">
-        <v>0.92269999999999996</v>
+        <v>0.92320000000000002</v>
       </c>
       <c r="E84">
-        <v>0.97807404000000009</v>
+        <v>0.97808023999999993</v>
       </c>
       <c r="F84">
         <v>0.87070000000000003</v>
       </c>
       <c r="G84">
-        <v>0.9451257999999999</v>
+        <v>0.94513695999999991</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
         <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D85">
         <v>0.92269999999999996</v>
       </c>
       <c r="E85">
-        <v>0.97807404000000009</v>
+        <v>0.97808048000000003</v>
       </c>
       <c r="F85">
         <v>0.87070000000000003</v>
       </c>
       <c r="G85">
-        <v>0.9451257999999999</v>
+        <v>0.94513692000000016</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
         <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D86">
         <v>0.92269999999999996</v>
       </c>
       <c r="E86">
-        <v>0.97807404000000009</v>
+        <v>0.97808132000000003</v>
       </c>
       <c r="F86">
         <v>0.87070000000000003</v>
       </c>
       <c r="G86">
-        <v>0.9451257999999999</v>
+        <v>0.94513548000000003</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B87" t="s">
         <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D87">
         <v>0.92269999999999996</v>
       </c>
       <c r="E87">
-        <v>0.97808048000000003</v>
+        <v>0.97807404000000009</v>
       </c>
       <c r="F87">
         <v>0.87070000000000003</v>
       </c>
       <c r="G87">
-        <v>0.94513692000000016</v>
+        <v>0.9451257999999999</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
         <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D88">
-        <v>0.92259999999999998</v>
+        <v>0.92269999999999996</v>
       </c>
       <c r="E88">
-        <v>0.97807720000000009</v>
+        <v>0.97807404000000009</v>
       </c>
       <c r="F88">
         <v>0.87070000000000003</v>
       </c>
       <c r="G88">
-        <v>0.94512472000000003</v>
+        <v>0.9451257999999999</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
         <v>107</v>
       </c>
       <c r="C89" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D89">
-        <v>0.92320000000000002</v>
+        <v>0.92269999999999996</v>
       </c>
       <c r="E89">
-        <v>0.97808023999999993</v>
+        <v>0.97807404000000009</v>
       </c>
       <c r="F89">
         <v>0.87070000000000003</v>
       </c>
       <c r="G89">
-        <v>0.94513695999999991</v>
+        <v>0.9451257999999999</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B90" t="s">
         <v>107</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D90">
-        <v>0.92269999999999996</v>
+        <v>0.92259999999999998</v>
       </c>
       <c r="E90">
-        <v>0.97808132000000003</v>
+        <v>0.97807720000000009</v>
       </c>
       <c r="F90">
         <v>0.87070000000000003</v>
       </c>
       <c r="G90">
-        <v>0.94513548000000003</v>
+        <v>0.94512472000000003</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3125,36 +3125,36 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D94">
-        <v>0.92279999999999995</v>
+        <v>0.92269999999999996</v>
       </c>
       <c r="E94">
-        <v>0.9780278</v>
+        <v>0.97808112000000003</v>
       </c>
       <c r="F94">
         <v>0.87060000000000004</v>
       </c>
       <c r="G94">
-        <v>0.94511668000000004</v>
+        <v>0.94513439999999993</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
         <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D95">
         <v>0.92279999999999995</v>
@@ -3171,13 +3171,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B96" t="s">
         <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D96">
         <v>0.92279999999999995</v>
@@ -3194,94 +3194,94 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
         <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D97">
-        <v>0.92269999999999996</v>
+        <v>0.92279999999999995</v>
       </c>
       <c r="E97">
-        <v>0.97808112000000003</v>
+        <v>0.9780278</v>
       </c>
       <c r="F97">
         <v>0.87060000000000004</v>
       </c>
       <c r="G97">
-        <v>0.94513439999999993</v>
+        <v>0.94511668000000004</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D98">
-        <v>0.91479999999999995</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="E98">
-        <v>0.97310627999999999</v>
+        <v>0.97310523999999998</v>
       </c>
       <c r="F98">
         <v>0.87039999999999995</v>
       </c>
       <c r="G98">
-        <v>0.94413935999999987</v>
+        <v>0.94414007999999994</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D99">
-        <v>0.91469999999999996</v>
+        <v>0.91479999999999995</v>
       </c>
       <c r="E99">
-        <v>0.97310604000000012</v>
+        <v>0.97310627999999999</v>
       </c>
       <c r="F99">
         <v>0.87039999999999995</v>
       </c>
       <c r="G99">
-        <v>0.94413824000000013</v>
+        <v>0.94413935999999987</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D100">
         <v>0.91469999999999996</v>
       </c>
       <c r="E100">
-        <v>0.97310523999999998</v>
+        <v>0.97310599999999992</v>
       </c>
       <c r="F100">
         <v>0.87039999999999995</v>
       </c>
       <c r="G100">
-        <v>0.94414007999999994</v>
+        <v>0.94413899999999995</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3309,48 +3309,48 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D102">
         <v>0.91469999999999996</v>
       </c>
       <c r="E102">
-        <v>0.97310599999999992</v>
+        <v>0.97310592000000007</v>
       </c>
       <c r="F102">
         <v>0.87039999999999995</v>
       </c>
       <c r="G102">
-        <v>0.94413899999999995</v>
+        <v>0.94413827999999977</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D103">
         <v>0.91469999999999996</v>
       </c>
       <c r="E103">
-        <v>0.97310592000000007</v>
+        <v>0.97310604000000012</v>
       </c>
       <c r="F103">
         <v>0.87039999999999995</v>
       </c>
       <c r="G103">
-        <v>0.94413827999999977</v>
+        <v>0.94413824000000013</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3401,94 +3401,94 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D106">
-        <v>0.91</v>
+        <v>0.91020000000000001</v>
       </c>
       <c r="E106">
-        <v>0.97076127999999995</v>
+        <v>0.97076188000000008</v>
       </c>
       <c r="F106">
         <v>0.86929999999999996</v>
       </c>
       <c r="G106">
-        <v>0.9433409599999999</v>
+        <v>0.94334103999999996</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107">
-        <v>0.91020000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="E107">
-        <v>0.97076188000000008</v>
+        <v>0.97076127999999995</v>
       </c>
       <c r="F107">
         <v>0.86929999999999996</v>
       </c>
       <c r="G107">
-        <v>0.94334103999999996</v>
+        <v>0.9433409599999999</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108">
-        <v>0.91</v>
+        <v>0.91020000000000001</v>
       </c>
       <c r="E108">
-        <v>0.97076116000000012</v>
+        <v>0.97076196000000003</v>
       </c>
       <c r="F108">
         <v>0.86929999999999996</v>
       </c>
       <c r="G108">
-        <v>0.94334028000000003</v>
+        <v>0.94334088000000005</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109">
-        <v>0.91020000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="E109">
-        <v>0.97076196000000003</v>
+        <v>0.97076116000000012</v>
       </c>
       <c r="F109">
         <v>0.86929999999999996</v>
       </c>
       <c r="G109">
-        <v>0.94334088000000005</v>
+        <v>0.94334028000000003</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3562,71 +3562,71 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D113">
         <v>0.93789999999999996</v>
       </c>
       <c r="E113">
-        <v>0.98287188000000003</v>
+        <v>0.98287176000000009</v>
       </c>
       <c r="F113">
         <v>0.86890000000000001</v>
       </c>
       <c r="G113">
-        <v>0.94263668000000012</v>
+        <v>0.9426369200000001</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D114">
         <v>0.93789999999999996</v>
       </c>
       <c r="E114">
-        <v>0.98287203999999984</v>
+        <v>0.98287188000000003</v>
       </c>
       <c r="F114">
         <v>0.86890000000000001</v>
       </c>
       <c r="G114">
-        <v>0.9426360399999999</v>
+        <v>0.94263668000000012</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D115">
         <v>0.93789999999999996</v>
       </c>
       <c r="E115">
-        <v>0.98287176000000009</v>
+        <v>0.98287203999999984</v>
       </c>
       <c r="F115">
         <v>0.86890000000000001</v>
       </c>
       <c r="G115">
-        <v>0.9426369200000001</v>
+        <v>0.9426360399999999</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3723,48 +3723,48 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B120" t="s">
         <v>107</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D120">
         <v>0.91120000000000001</v>
       </c>
       <c r="E120">
-        <v>0.97134540000000003</v>
+        <v>0.97133483999999992</v>
       </c>
       <c r="F120">
         <v>0.86829999999999996</v>
       </c>
       <c r="G120">
-        <v>0.94289972</v>
+        <v>0.94290063999999985</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B121" t="s">
         <v>107</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D121">
         <v>0.91120000000000001</v>
       </c>
       <c r="E121">
-        <v>0.97133483999999992</v>
+        <v>0.97134540000000003</v>
       </c>
       <c r="F121">
         <v>0.86829999999999996</v>
       </c>
       <c r="G121">
-        <v>0.94290063999999985</v>
+        <v>0.94289972</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3792,36 +3792,36 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B123" t="s">
         <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D123">
         <v>0.91139999999999999</v>
       </c>
       <c r="E123">
-        <v>0.97134251999999999</v>
+        <v>0.97133972000000013</v>
       </c>
       <c r="F123">
         <v>0.86819999999999997</v>
       </c>
       <c r="G123">
-        <v>0.94290099999999988</v>
+        <v>0.94290464000000007</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B124" t="s">
         <v>107</v>
       </c>
       <c r="C124" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D124">
         <v>0.91139999999999999</v>
@@ -3838,13 +3838,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B125" t="s">
         <v>107</v>
       </c>
       <c r="C125" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D125">
         <v>0.91139999999999999</v>
@@ -3861,25 +3861,25 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B126" t="s">
         <v>107</v>
       </c>
       <c r="C126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D126">
         <v>0.91139999999999999</v>
       </c>
       <c r="E126">
-        <v>0.97133972000000013</v>
+        <v>0.97134251999999999</v>
       </c>
       <c r="F126">
         <v>0.86819999999999997</v>
       </c>
       <c r="G126">
-        <v>0.94290464000000007</v>
+        <v>0.94290099999999988</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3907,48 +3907,48 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B128" t="s">
         <v>107</v>
       </c>
       <c r="C128" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D128">
         <v>0.91149999999999998</v>
       </c>
       <c r="E128">
-        <v>0.97134052000000004</v>
+        <v>0.97134051999999982</v>
       </c>
       <c r="F128">
         <v>0.86819999999999997</v>
       </c>
       <c r="G128">
-        <v>0.94289971999999989</v>
+        <v>0.94289995999999998</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B129" t="s">
         <v>107</v>
       </c>
       <c r="C129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D129">
         <v>0.91149999999999998</v>
       </c>
       <c r="E129">
-        <v>0.97134051999999982</v>
+        <v>0.97134052000000004</v>
       </c>
       <c r="F129">
         <v>0.86819999999999997</v>
       </c>
       <c r="G129">
-        <v>0.94289995999999998</v>
+        <v>0.94289971999999989</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4022,25 +4022,25 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D133">
         <v>0.90180000000000005</v>
       </c>
       <c r="E133">
-        <v>0.96737483999999996</v>
+        <v>0.96736411999999994</v>
       </c>
       <c r="F133">
         <v>0.86760000000000004</v>
       </c>
       <c r="G133">
-        <v>0.94185892000000004</v>
+        <v>0.94186127999999991</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4091,25 +4091,25 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D136">
         <v>0.90180000000000005</v>
       </c>
       <c r="E136">
-        <v>0.96736411999999994</v>
+        <v>0.96737483999999996</v>
       </c>
       <c r="F136">
         <v>0.86760000000000004</v>
       </c>
       <c r="G136">
-        <v>0.94186127999999991</v>
+        <v>0.94185892000000004</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4459,48 +4459,48 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D152">
         <v>0.94830000000000003</v>
       </c>
       <c r="E152">
-        <v>0.98569311999999998</v>
+        <v>0.98569304000000002</v>
       </c>
       <c r="F152">
         <v>0.86380000000000001</v>
       </c>
       <c r="G152">
-        <v>0.93977915999999995</v>
+        <v>0.93977924000000002</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D153">
         <v>0.94830000000000003</v>
       </c>
       <c r="E153">
-        <v>0.98569304000000002</v>
+        <v>0.98569311999999998</v>
       </c>
       <c r="F153">
         <v>0.86380000000000001</v>
       </c>
       <c r="G153">
-        <v>0.93977924000000002</v>
+        <v>0.93977915999999995</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4528,71 +4528,71 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D155">
         <v>0.94840000000000002</v>
       </c>
       <c r="E155">
-        <v>0.98569247999999987</v>
+        <v>0.98569075999999989</v>
       </c>
       <c r="F155">
         <v>0.86370000000000002</v>
       </c>
       <c r="G155">
-        <v>0.93976996000000002</v>
+        <v>0.93977927999999999</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D156">
         <v>0.94840000000000002</v>
       </c>
       <c r="E156">
-        <v>0.98569075999999989</v>
+        <v>0.98569255999999994</v>
       </c>
       <c r="F156">
         <v>0.86370000000000002</v>
       </c>
       <c r="G156">
-        <v>0.93977927999999999</v>
+        <v>0.93977884</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D157">
         <v>0.94840000000000002</v>
       </c>
       <c r="E157">
-        <v>0.98569255999999994</v>
+        <v>0.98569247999999987</v>
       </c>
       <c r="F157">
         <v>0.86370000000000002</v>
       </c>
       <c r="G157">
-        <v>0.93977884</v>
+        <v>0.93976996000000002</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4896,13 +4896,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B171" t="s">
         <v>79</v>
       </c>
       <c r="C171" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -4914,18 +4914,18 @@
         <v>0.84609999999999996</v>
       </c>
       <c r="G171">
-        <v>0.92561649999999995</v>
+        <v>0.92622696000000004</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B172" t="s">
         <v>79</v>
       </c>
       <c r="C172" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -4937,7 +4937,7 @@
         <v>0.84609999999999996</v>
       </c>
       <c r="G172">
-        <v>0.92622696000000004</v>
+        <v>0.92561649999999995</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
